--- a/output_data/base_de_dados.xlsx
+++ b/output_data/base_de_dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Período</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Mês</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +492,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +525,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,6 +558,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -551,6 +591,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +624,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -597,6 +657,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -620,6 +690,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,6 +723,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -666,6 +756,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,6 +789,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -712,6 +822,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -735,6 +855,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -758,6 +888,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -781,6 +921,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -804,6 +954,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -827,6 +987,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -850,6 +1020,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -873,6 +1053,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -896,6 +1086,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -919,6 +1119,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -942,6 +1152,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -965,6 +1185,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -988,6 +1218,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1011,6 +1251,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1034,6 +1284,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1057,6 +1317,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1080,6 +1350,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1103,6 +1383,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1126,6 +1416,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1149,6 +1449,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1172,6 +1482,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1195,6 +1515,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1218,6 +1548,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1241,6 +1581,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1264,6 +1614,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1287,6 +1647,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1310,6 +1680,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1333,6 +1713,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1356,6 +1746,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1379,6 +1779,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1402,6 +1812,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1425,6 +1845,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1448,6 +1878,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1471,6 +1911,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1494,6 +1944,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1517,6 +1977,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1540,6 +2010,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1563,6 +2043,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1586,6 +2076,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1609,6 +2109,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1632,6 +2142,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1655,6 +2175,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1678,6 +2208,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1701,6 +2241,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1724,6 +2274,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1747,6 +2307,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1770,6 +2340,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1793,6 +2373,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1816,6 +2406,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1839,6 +2439,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1862,6 +2472,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1885,6 +2505,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1908,6 +2538,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1931,6 +2571,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1954,6 +2604,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1977,6 +2637,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2000,6 +2670,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2023,6 +2703,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2046,6 +2736,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2069,6 +2769,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2092,6 +2802,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2115,6 +2835,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2138,6 +2868,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2161,6 +2901,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2184,6 +2934,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2207,6 +2967,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2230,6 +3000,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2253,6 +3033,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2276,6 +3066,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2299,6 +3099,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2322,6 +3132,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2345,6 +3165,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2368,6 +3198,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2391,6 +3231,16 @@
           <t>01/2025</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2414,6 +3264,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2437,6 +3297,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2460,6 +3330,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2483,6 +3363,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2506,6 +3396,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2529,6 +3429,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2552,6 +3462,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2575,6 +3495,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2598,6 +3528,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2621,6 +3561,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2644,6 +3594,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2667,6 +3627,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2690,6 +3660,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2713,6 +3693,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2736,6 +3726,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2759,6 +3759,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2782,6 +3792,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2805,6 +3825,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2828,6 +3858,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2851,6 +3891,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2874,6 +3924,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2897,6 +3957,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2920,6 +3990,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2943,6 +4023,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2966,6 +4056,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2989,6 +4089,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3012,6 +4122,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3035,6 +4155,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3058,6 +4188,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3081,6 +4221,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3104,6 +4254,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3127,6 +4287,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3150,6 +4320,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3173,6 +4353,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3196,6 +4386,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3219,6 +4419,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3242,6 +4452,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3265,6 +4485,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3288,6 +4518,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3311,6 +4551,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3334,6 +4584,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3357,6 +4617,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3380,6 +4650,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3403,6 +4683,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3426,6 +4716,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3449,6 +4749,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3472,6 +4782,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3495,6 +4815,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3518,6 +4848,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3541,6 +4881,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3564,6 +4914,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3587,6 +4947,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3610,6 +4980,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3633,6 +5013,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3656,6 +5046,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3679,6 +5079,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3702,6 +5112,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3725,6 +5145,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3748,6 +5178,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3771,6 +5211,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3794,6 +5244,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3817,6 +5277,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3840,6 +5310,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3863,6 +5343,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3886,6 +5376,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3909,6 +5409,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3932,6 +5442,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3955,6 +5475,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3978,6 +5508,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4001,6 +5541,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4024,6 +5574,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4047,6 +5607,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4070,6 +5640,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4093,6 +5673,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4116,6 +5706,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4139,6 +5739,16 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4160,6 +5770,2425 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>12/2024</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ABS MILI DIANOITE SUAVE C/ABAS C/8 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ACUCAR CRISTAL CAETE 1KG (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>AGUA SANIT TUBARAO 2L (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ALHO KG (KG)</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>APARELHO BARB BIC COMF 3 AZUL (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>AREIA HIGIENICA CARECAT TRADIC 4KG (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ARROZ BRANCO DALON 1KG (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BATATA DOCE BRANCA IVO VERDURAS KG (KG)</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BATATA INGLESA IVO VERDURAS KG (KG)</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BISC MARILAN DISTRACAO CHOC 320G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BISC PILAR CREAM CRACKER PR 350G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BISC VITAR ROSQ COCO 300G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BISC VITAR WAFER CHOCOLATE 80G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BISC VITAR WAFER LARANJA 80G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BISC VITAR WAFER LIMAO 80G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CAFE 3 CORACOES TRAD VACUO 250G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CAFE SANTA CLARA MOIDO VACUO 250G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CARNE MOIDA KADAO 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CATCHUP PALMEIRON PIC TP 300G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CATCHUP QUERO TRAD TP 300G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CEBOLA BRANCA IVO VERDURAS KG (KG)</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>4</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CERVEJA AMSTEL SLEEK 350ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CHOC BARRA HERSHEYS OVOMALTINE 77G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>COADOR CAFE PALMAS P (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>COLORIFICO MARATA 100G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CONDIMENTO MISTO MARATA 100G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CR DENT ORAL B 123 70G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CREME LEITE ITALAC 200G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DESINF PINHO SOL ORIGINAL 500ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DETERGENTE INVICTO COCO 500ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIMPOL COCO 500ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DETERGENTE LIMPOL MACA 500ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DUETO FUGINI SCH 170G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ESPONJA BOMBRIL ANTIAD C/1 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>FEIJAO CARIOCA NOTA 10 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>FILE PEITO FGO FRIATO BD (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>4</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>FLOCAO MILHO CORINGA 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GEL ADESIVO RADIANTE LAVANDA 7G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GOIABADA PALMEIRON TRAD 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>LEITE COND BETANIA TP 395G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>LEITE PO LA SERENISSIMA INST 200G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>LEITE UHT BETANIA INT TP 1L (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>LING CAL RETA FRIMESA KG (KG)</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MAC INST MARATA GALINHA CAIP 48X74G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MAC INST VITAR LAMEN CARNE 74,3G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>MARGARINA CLAYBOM CREM C/SAL 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>MASSA BRANDINI COMUM 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MASSA VITARELA SEMOLA PARAFUSO 400G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MILHO PIPOCA YOKI 400G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>MOLHO TOM QUERO TRAD SCH 300G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>5</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MORTADELA SADIA FRANGO 400G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>OLEO SOJA SOYA 900ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>PANO PRATO GRANADA/XADREX C/2 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>PAP HIG FD MAX PURE CP NEU 30M C/12 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>PEDRA SANIT RAD TUTTI-FRUTTI 30G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>PEITO FGO COPACOL PCT KG (KG)</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>PIMENTAO IVO VERDURAS KG (KG)</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>PROT DIARIO MILI C/15 (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>QUEIJO RALADO PARM LA SEREN 50G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>REQUEIJAO CREM NATVILLE TRAD 200G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>REQUEIJAO DALLORA CHEDDAR 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>SAB LUX LIRIO AZUL 85G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>SAB LUX ORQUIDEA NEGRA 85G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>SABAO PO ALA CUIDADO COCO 500G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SABAO PO INVICTO ACT COCO 800G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>SACO P/ LIXO JEITOSA ALMOF 15L (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>SALG TORCIDA CEBOLA 35G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SALG TORCIDA CHURRASCO 35G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SALGADINHO LEVINHOS CHURRASCO 50G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SALGADINHO LEVINHOS PRESUNTO 50G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>SALGADINHO MARATITOS QJO PARM 45G (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>TOMATE IVO VERDURAS KG (KG)</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>VINAGRE ALCOOL MARATA 500ML (UNIDADE)</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>08</t>
         </is>
       </c>
     </row>
